--- a/incrediblejournEYBEEwithyou/prewedd.xlsx
+++ b/incrediblejournEYBEEwithyou/prewedd.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Journey lyric" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Euphoria save the date" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="104">
   <si>
     <t>Time</t>
   </si>
@@ -262,6 +262,72 @@
   </si>
   <si>
     <t>03.43 - 03.50</t>
+  </si>
+  <si>
+    <t>credit by inspace | view matahari</t>
+  </si>
+  <si>
+    <t>daun-daun, &amp; cuplikan closing</t>
+  </si>
+  <si>
+    <t>casual ala anak kuliah</t>
+  </si>
+  <si>
+    <t>tatap-tatapan, ketawa</t>
+  </si>
+  <si>
+    <t>debby jatuh</t>
+  </si>
+  <si>
+    <t>eric gendong</t>
+  </si>
+  <si>
+    <t>adegan ujan bisa? Awalnya payungan, abis itu nari di bawah ujan</t>
+  </si>
+  <si>
+    <t>berantem, pura-pura teriak &amp; nangis</t>
+  </si>
+  <si>
+    <t>studio</t>
+  </si>
+  <si>
+    <t>dipeluk dari belakang</t>
+  </si>
+  <si>
+    <t>cheongsam</t>
+  </si>
+  <si>
+    <t>eric masang kalung lamaran</t>
+  </si>
+  <si>
+    <t>fokus ke ekspresi muka</t>
+  </si>
+  <si>
+    <t>(kalau bisa :) )</t>
+  </si>
+  <si>
+    <t>Lokasi :</t>
+  </si>
+  <si>
+    <t>pantai _________________</t>
+  </si>
+  <si>
+    <t>kota lama</t>
+  </si>
+  <si>
+    <t>Formal (dress &amp; suit)</t>
+  </si>
+  <si>
+    <t>Casual (sweater &amp; jeans)</t>
+  </si>
+  <si>
+    <t>hutan/ pabrik kayu</t>
+  </si>
+  <si>
+    <t>studio (kerja &amp; sofa/kasur)</t>
+  </si>
+  <si>
+    <t>other note:</t>
   </si>
 </sst>
 </file>
@@ -331,15 +397,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -404,7 +476,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -419,12 +491,114 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -433,22 +607,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -459,24 +618,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -485,9 +627,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -498,9 +638,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -508,6 +646,82 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -517,7 +731,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -532,25 +746,116 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -563,7 +868,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -589,74 +894,229 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,10 +1414,961 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="48"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="53"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="54"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="18"/>
+      <c r="B30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="18"/>
+      <c r="B33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="25"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="60"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="18"/>
+      <c r="B45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="61"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="63"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="33"/>
+      <c r="B53" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="36"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="18"/>
+      <c r="B57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="25"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="18"/>
+      <c r="B62" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="25"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A65" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="71"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="68" spans="1:5">
+      <c r="A68" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="85"/>
+      <c r="C69" s="83"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="79"/>
+      <c r="B70" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="80"/>
+      <c r="B71" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A72" s="81"/>
+      <c r="B72" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="76"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="86"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="89"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="91"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="89"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="89"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="89"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="89"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="89"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="91"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="89"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="91"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="89"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="89"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="89"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="89"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="89"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="89"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="89"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="89"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="91"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="89"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="89"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="91"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="89"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="71">
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -986,679 +2397,735 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="C2" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="52" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="28"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="28"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="31"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="31"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="28"/>
+      <c r="C18" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="28"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="28"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="16"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="28"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="31"/>
+      <c r="C32" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="16"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="31"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="28"/>
+      <c r="C34" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="28"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="26"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="28"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="28"/>
+      <c r="C37" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="28"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="28"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="28"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="28"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="28"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="31"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="16"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="31"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="12"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:5" ht="18">
-      <c r="A47" s="12" t="s">
+      <c r="A46" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B46" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="28"/>
+      <c r="C46" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="61"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="62"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="12"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="28"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="63"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="28"/>
+      <c r="C49" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="28"/>
+      <c r="C50" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="16" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="28"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="12"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="28"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="28"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="28"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="28"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="31"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="16"/>
-      <c r="B57" s="13" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="31"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="12"/>
-      <c r="B58" s="15"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="26"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="28"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="28"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="28"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="31"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="16"/>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="31"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="12"/>
-      <c r="B63" s="15"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="26"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="28"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="28"/>
+      <c r="C64" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="34"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="68">
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/incrediblejournEYBEEwithyou/prewedd.xlsx
+++ b/incrediblejournEYBEEwithyou/prewedd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Journey lyric" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
   <si>
     <t>Time</t>
   </si>
@@ -328,6 +328,57 @@
   </si>
   <si>
     <t>other note:</t>
+  </si>
+  <si>
+    <t>00.00 - 00.19</t>
+  </si>
+  <si>
+    <t>(fade music)</t>
+  </si>
+  <si>
+    <t>flashback (B&amp;W)</t>
+  </si>
+  <si>
+    <t>00.20 - 00.33</t>
+  </si>
+  <si>
+    <t>(bunyi kokang &amp; musik riang)</t>
+  </si>
+  <si>
+    <t>take my hands now,</t>
+  </si>
+  <si>
+    <t>you are the cause of my euphoria</t>
+  </si>
+  <si>
+    <t>00.34 - 00.39</t>
+  </si>
+  <si>
+    <t>00.40 - 00.54</t>
+  </si>
+  <si>
+    <t>save the date   ( 11 + 08 = 19 )        credit by inspace</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Other note :</t>
   </si>
 </sst>
 </file>
@@ -411,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -858,6 +909,28 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -868,7 +941,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -897,9 +970,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,19 +986,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,40 +1025,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,62 +1040,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1084,27 +1058,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,6 +1071,221 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1416,7 +1584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1445,26 +1615,26 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="51" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="48"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
@@ -1473,11 +1643,11 @@
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="91" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1488,9 +1658,9 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="92"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
@@ -1499,18 +1669,18 @@
       <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="93"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
@@ -1519,9 +1689,9 @@
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
@@ -1530,9 +1700,9 @@
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
@@ -1541,25 +1711,25 @@
       <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
@@ -1568,9 +1738,9 @@
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
@@ -1579,36 +1749,36 @@
       <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="81" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="25"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
@@ -1617,11 +1787,11 @@
       <c r="B18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
@@ -1630,9 +1800,9 @@
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
@@ -1641,16 +1811,16 @@
       <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
@@ -1659,9 +1829,9 @@
       <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
@@ -1670,9 +1840,9 @@
       <c r="B23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
@@ -1681,25 +1851,25 @@
       <c r="B24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
@@ -1708,9 +1878,9 @@
       <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
@@ -1719,58 +1889,58 @@
       <c r="B28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="81" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="84"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="18"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="84"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="81" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="18"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
@@ -1779,11 +1949,11 @@
       <c r="B34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
@@ -1792,16 +1962,16 @@
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="25"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
@@ -1810,11 +1980,11 @@
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
@@ -1823,9 +1993,9 @@
       <c r="B38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
@@ -1834,25 +2004,25 @@
       <c r="B39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
@@ -1861,9 +2031,9 @@
       <c r="B42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="s">
@@ -1872,58 +2042,58 @@
       <c r="B43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="81" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="84"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="18"/>
+      <c r="A45" s="81"/>
       <c r="B45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="84"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="D46" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="61"/>
+      <c r="E46" s="76"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="39"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="62"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="77"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="63"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="78"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
@@ -1932,11 +2102,11 @@
       <c r="B49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
@@ -1945,11 +2115,11 @@
       <c r="B50" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="16" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="15" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1960,25 +2130,25 @@
       <c r="B51" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="16"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="28"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="33"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="29"/>
+      <c r="B53" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="36"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
@@ -1987,9 +2157,9 @@
       <c r="B54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="8" t="s">
@@ -1998,36 +2168,36 @@
       <c r="B55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="81" t="s">
         <v>76</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="84"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="18"/>
+      <c r="A57" s="81"/>
       <c r="B57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="84"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="25"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8" t="s">
@@ -2036,9 +2206,9 @@
       <c r="B59" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
@@ -2047,36 +2217,36 @@
       <c r="B60" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="81" t="s">
         <v>79</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="84"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="18"/>
+      <c r="A62" s="81"/>
       <c r="B62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="21"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="84"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="25"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="23"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
@@ -2085,66 +2255,66 @@
       <c r="B64" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="68" spans="1:5">
-      <c r="A68" s="78" t="s">
+      <c r="A68" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="84" t="s">
+      <c r="B68" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="61" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="77" t="s">
+      <c r="A69" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B69" s="85"/>
-      <c r="C69" s="83"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="62"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="79"/>
-      <c r="B70" s="72" t="s">
+      <c r="A70" s="56"/>
+      <c r="B70" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="80"/>
-      <c r="B71" s="72" t="s">
+      <c r="A71" s="57"/>
+      <c r="B71" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="73" t="s">
+      <c r="C71" s="40" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A72" s="81"/>
-      <c r="B72" s="75" t="s">
+      <c r="A72" s="58"/>
+      <c r="B72" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="76"/>
+      <c r="C72" s="43"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
@@ -2152,165 +2322,170 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="86"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="89"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="91"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="89"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="89"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="89"/>
-      <c r="B79" s="90"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="89"/>
-      <c r="B80" s="90"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
+      <c r="A80" s="49"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="89"/>
-      <c r="B81" s="90"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="91"/>
+      <c r="A81" s="49"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="89"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="89"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
+      <c r="A83" s="49"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="89"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="89"/>
-      <c r="B85" s="90"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="89"/>
-      <c r="B86" s="90"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="89"/>
-      <c r="B87" s="90"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
+      <c r="A87" s="49"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="89"/>
-      <c r="B88" s="90"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="91"/>
-      <c r="E88" s="91"/>
+      <c r="A88" s="49"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="89"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="89"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="91"/>
-      <c r="E90" s="91"/>
+      <c r="A90" s="49"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="89"/>
-      <c r="B91" s="90"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="89"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="91"/>
+      <c r="A92" s="49"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="89"/>
-      <c r="B93" s="90"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="91"/>
+      <c r="A93" s="49"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
@@ -2327,36 +2502,31 @@
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2365,19 +2535,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1">
@@ -2398,665 +2568,523 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="41"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="48"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
-        <v>43</v>
+      <c r="A2" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:5" ht="35.25" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="48.75" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A5" s="97" t="s">
+        <v>111</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="91"/>
+    </row>
+    <row r="6" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A6" s="98"/>
       <c r="B6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="54"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
-        <v>45</v>
+        <v>110</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="93"/>
+    </row>
+    <row r="7" spans="1:5" ht="48.75" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="51.75" customHeight="1">
+      <c r="A8" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="105"/>
+      <c r="C8" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18"/>
-      <c r="B16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="25"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="18"/>
-      <c r="B30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
+      <c r="A30" s="128"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="25"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="18"/>
-      <c r="B45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="61"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="39"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="62"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="63"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="128"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="128"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="121"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="126"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="106"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="127"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="106"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="106"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="106"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="106"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="106"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="106"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="106"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="112"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="112"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="112"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="112"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="112"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="16"/>
+      <c r="A49" s="106"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="A50" s="106"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="16"/>
+      <c r="A51" s="106"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
+      <c r="A52" s="106"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="33"/>
-      <c r="B53" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="36"/>
+      <c r="A53" s="106"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="A54" s="106"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
+      <c r="A55" s="106"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
+      <c r="A56" s="112"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="18"/>
-      <c r="B57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="25"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
+      <c r="A58" s="106"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+      <c r="A59" s="106"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
+      <c r="A60" s="106"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
+      <c r="A61" s="112"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="18"/>
-      <c r="B62" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="21"/>
+      <c r="A62" s="112"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="25"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
+      <c r="A63" s="106"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="110"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A65" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
+      <c r="A64" s="106"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="106"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="38">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="D61:D62"/>
@@ -3064,69 +3092,9 @@
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
